--- a/Backend/gesture_sequence.xlsx
+++ b/Backend/gesture_sequence.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>

--- a/Backend/gesture_sequence.xlsx
+++ b/Backend/gesture_sequence.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>

--- a/Backend/gesture_sequence.xlsx
+++ b/Backend/gesture_sequence.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>EyesClosed</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>

--- a/Backend/gesture_sequence.xlsx
+++ b/Backend/gesture_sequence.xlsx
@@ -621,7 +621,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>Yawning</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>Yawning</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>Yawning</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>Yawning</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>Yawning</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>Yawning</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>Yawning</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>Yawning</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>Yawning</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>Yawning</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>EyesClosed</t>
         </is>
       </c>
     </row>
